--- a/results_repeated_boost_ensemble/data_1_1year_bundesliga_medias_metricas.xlsx
+++ b/results_repeated_boost_ensemble/data_1_1year_bundesliga_medias_metricas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,175 +473,200 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>AdaBoost_DT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4972222222222222</v>
+        <v>0.4833333333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5399800555406963</v>
+        <v>0.5065068849279376</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4972222222222222</v>
+        <v>0.4833333333333334</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4944021274456056</v>
+        <v>0.4803706522888109</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7165724206349207</v>
+        <v>0.7118055555555556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LogisticRegression</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5166666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4819444444444445</v>
+        <v>0.5041666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5359691234691235</v>
+        <v>0.5393473193473193</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4819444444444445</v>
+        <v>0.5041666666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.479955200617672</v>
+        <v>0.5009712809100128</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6834755291005291</v>
+        <v>0.7396197089947091</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KNN</t>
+          <t>GaussianNB</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4944444444444445</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4416666666666667</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4734620412267471</v>
+        <v>0.488048433048433</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4416666666666667</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4220734760400999</v>
+        <v>0.4621807637939216</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6569361772486773</v>
+        <v>0.6819808201058202</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>KNN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.55</v>
+        <v>0.4944444444444445</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5347222222222223</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5630624896259572</v>
+        <v>0.4734620412267471</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5347222222222223</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5395941934300819</v>
+        <v>0.4220734760400999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6956845238095238</v>
+        <v>0.6569361772486773</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GaussianNB</t>
+          <t>LogisticRegression</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4555555555555555</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.4819444444444445</v>
       </c>
       <c r="D6" t="n">
-        <v>0.488048433048433</v>
+        <v>0.5359691234691235</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.4819444444444445</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4621807637939216</v>
+        <v>0.479955200617672</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6819808201058201</v>
+        <v>0.6834755291005291</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AdaBoost_DT</t>
+          <t>RandomForest</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5333333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.4972222222222222</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5065068849279376</v>
+        <v>0.5399800555406963</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.4972222222222222</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4803706522888109</v>
+        <v>0.4944021274456057</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7118055555555556</v>
+        <v>0.7165724206349207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5347222222222222</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5630624896259571</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5347222222222222</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.539594193430082</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.6956845238095238</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.5166666666666667</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.486111111111111</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.5087084123307034</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D9" t="n">
+        <v>0.5087084123307033</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.486111111111111</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>0.4879894670979129</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>0.7115343915343916</v>
       </c>
     </row>
